--- a/biology/Biochimie/Sporamine/Sporamine.xlsx
+++ b/biology/Biochimie/Sporamine/Sporamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sporamine est une protéine de stockage présente principalement dans les racines tubéreuses (ou tubercules) de la patate douce (Ipomoea batatas), plante chez laquelle elle représente plus de 80 % des protéines totales. La teneur en protéines brutes varie chez la patate douce entre 1 à 3 % et 10 % (dont 10 à 15 % de composants azotés non protéiques). Cette protéine, de la famille des globulines, a été isolée pour la première fois en 1931 et désignée sous le nom d'« ipomoéine », avant d'être renommée plus tard en « sporamine ».
-La sporamine, qui comprend deux formes monomériques, la sporamine A et la sporamine B, possède diverses activités biologiques, c'est notamment un inhibiteur de trypsine. Elle peut jouer plusieurs rôles dans la plante : protéine de stockage dans les racines tubéreuses, défense des tissus végétatifs dans les feuilles et les tiges, et régulation des protéinases endogènes[1],[2].
+La sporamine, qui comprend deux formes monomériques, la sporamine A et la sporamine B, possède diverses activités biologiques, c'est notamment un inhibiteur de trypsine. Elle peut jouer plusieurs rôles dans la plante : protéine de stockage dans les racines tubéreuses, défense des tissus végétatifs dans les feuilles et les tiges, et régulation des protéinases endogènes,.
 </t>
         </is>
       </c>
